--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>83.2151208609977</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H2">
-        <v>83.2151208609977</v>
+        <v>387.809329</v>
       </c>
       <c r="I2">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J2">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.46407048654187</v>
+        <v>21.110155</v>
       </c>
       <c r="N2">
-        <v>5.46407048654187</v>
+        <v>63.330465</v>
       </c>
       <c r="O2">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646842</v>
       </c>
       <c r="P2">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646841</v>
       </c>
       <c r="Q2">
-        <v>454.6932859305923</v>
+        <v>2728.905015211998</v>
       </c>
       <c r="R2">
-        <v>454.6932859305923</v>
+        <v>24560.14513690798</v>
       </c>
       <c r="S2">
-        <v>0.1901861374538246</v>
+        <v>0.4170131704177163</v>
       </c>
       <c r="T2">
-        <v>0.1901861374538246</v>
+        <v>0.4170131704177162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.2151208609977</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H3">
-        <v>83.2151208609977</v>
+        <v>387.809329</v>
       </c>
       <c r="I3">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J3">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>9.11069508851247</v>
+        <v>0.3162533333333333</v>
       </c>
       <c r="N3">
-        <v>9.11069508851247</v>
+        <v>0.94876</v>
       </c>
       <c r="O3">
-        <v>0.6251006262567967</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="P3">
-        <v>0.6251006262567967</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="Q3">
-        <v>758.1475929182633</v>
+        <v>40.88199766467111</v>
       </c>
       <c r="R3">
-        <v>758.1475929182633</v>
+        <v>367.93797898204</v>
       </c>
       <c r="S3">
-        <v>0.3171130227312158</v>
+        <v>0.006247315814995398</v>
       </c>
       <c r="T3">
-        <v>0.3171130227312158</v>
+        <v>0.006247315814995397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.3630607386539</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H4">
-        <v>71.3630607386539</v>
+        <v>387.809329</v>
       </c>
       <c r="I4">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J4">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.46407048654187</v>
+        <v>0.131037</v>
       </c>
       <c r="N4">
-        <v>5.46407048654187</v>
+        <v>0.393111</v>
       </c>
       <c r="O4">
-        <v>0.3748993737432033</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="P4">
-        <v>0.3748993737432033</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="Q4">
-        <v>389.9327940113736</v>
+        <v>16.939123681391</v>
       </c>
       <c r="R4">
-        <v>389.9327940113736</v>
+        <v>152.452113132519</v>
       </c>
       <c r="S4">
-        <v>0.1630985419277145</v>
+        <v>0.002588524566116463</v>
       </c>
       <c r="T4">
-        <v>0.1630985419277145</v>
+        <v>0.002588524566116463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.3630607386539</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H5">
-        <v>71.3630607386539</v>
+        <v>387.809329</v>
       </c>
       <c r="I5">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J5">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.11069508851247</v>
+        <v>9.283255666666667</v>
       </c>
       <c r="N5">
-        <v>9.11069508851247</v>
+        <v>27.849767</v>
       </c>
       <c r="O5">
-        <v>0.6251006262567967</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="P5">
-        <v>0.6251006262567967</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="Q5">
-        <v>650.1670869728712</v>
+        <v>1200.044383675149</v>
       </c>
       <c r="R5">
-        <v>650.1670869728712</v>
+        <v>10800.39945307634</v>
       </c>
       <c r="S5">
-        <v>0.2719476420636008</v>
+        <v>0.1833828258179487</v>
       </c>
       <c r="T5">
-        <v>0.2719476420636008</v>
+        <v>0.1833828258179486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.198504895437178</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H6">
-        <v>0.198504895437178</v>
+        <v>387.809329</v>
       </c>
       <c r="I6">
-        <v>0.001210133034789566</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J6">
-        <v>0.001210133034789566</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.46407048654187</v>
+        <v>0.07194533333333333</v>
       </c>
       <c r="N6">
-        <v>5.46407048654187</v>
+        <v>0.215836</v>
       </c>
       <c r="O6">
-        <v>0.3748993737432033</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="P6">
-        <v>0.3748993737432033</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="Q6">
-        <v>1.084644740592364</v>
+        <v>9.300357148227112</v>
       </c>
       <c r="R6">
-        <v>1.084644740592364</v>
+        <v>83.70321433404399</v>
       </c>
       <c r="S6">
-        <v>0.0004536781168885703</v>
+        <v>0.001421218913366232</v>
       </c>
       <c r="T6">
-        <v>0.0004536781168885703</v>
+        <v>0.001421218913366232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.198504895437178</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H7">
-        <v>0.198504895437178</v>
+        <v>216.067345</v>
       </c>
       <c r="I7">
-        <v>0.001210133034789566</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J7">
-        <v>0.001210133034789566</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.11069508851247</v>
+        <v>21.110155</v>
       </c>
       <c r="N7">
-        <v>9.11069508851247</v>
+        <v>63.330465</v>
       </c>
       <c r="O7">
-        <v>0.6251006262567967</v>
+        <v>0.6828970503646842</v>
       </c>
       <c r="P7">
-        <v>0.6251006262567967</v>
+        <v>0.6828970503646841</v>
       </c>
       <c r="Q7">
-        <v>1.808517575905179</v>
+        <v>1520.405047796158</v>
       </c>
       <c r="R7">
-        <v>1.808517575905179</v>
+        <v>13683.64543016542</v>
       </c>
       <c r="S7">
-        <v>0.0007564549179009955</v>
+        <v>0.2323382183572703</v>
       </c>
       <c r="T7">
-        <v>0.0007564549179009955</v>
+        <v>0.2323382183572703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.447113901992034</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H8">
-        <v>0.447113901992034</v>
+        <v>216.067345</v>
       </c>
       <c r="I8">
-        <v>0.002725712642615704</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J8">
-        <v>0.002725712642615704</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>5.46407048654187</v>
+        <v>0.3162533333333333</v>
       </c>
       <c r="N8">
-        <v>5.46407048654187</v>
+        <v>0.94876</v>
       </c>
       <c r="O8">
-        <v>0.3748993737432033</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="P8">
-        <v>0.3748993737432033</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="Q8">
-        <v>2.443061875997247</v>
+        <v>22.77733936024444</v>
       </c>
       <c r="R8">
-        <v>2.443061875997247</v>
+        <v>204.9960542422</v>
       </c>
       <c r="S8">
-        <v>0.001021867962720559</v>
+        <v>0.003480681975864915</v>
       </c>
       <c r="T8">
-        <v>0.001021867962720559</v>
+        <v>0.003480681975864915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.447113901992034</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H9">
-        <v>0.447113901992034</v>
+        <v>216.067345</v>
       </c>
       <c r="I9">
-        <v>0.002725712642615704</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J9">
-        <v>0.002725712642615704</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>9.11069508851247</v>
+        <v>0.131037</v>
       </c>
       <c r="N9">
-        <v>9.11069508851247</v>
+        <v>0.393111</v>
       </c>
       <c r="O9">
-        <v>0.6251006262567967</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="P9">
-        <v>0.6251006262567967</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="Q9">
-        <v>4.07351843088447</v>
+        <v>9.437605562254998</v>
       </c>
       <c r="R9">
-        <v>4.07351843088447</v>
+        <v>84.938450060295</v>
       </c>
       <c r="S9">
-        <v>0.001703844679895145</v>
+        <v>0.00144219230597225</v>
       </c>
       <c r="T9">
-        <v>0.001703844679895145</v>
+        <v>0.00144219230597225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21877928942318</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H10">
-        <v>1.21877928942318</v>
+        <v>216.067345</v>
       </c>
       <c r="I10">
-        <v>0.007429968298767265</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J10">
-        <v>0.007429968298767265</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.46407048654187</v>
+        <v>9.283255666666667</v>
       </c>
       <c r="N10">
-        <v>5.46407048654187</v>
+        <v>27.849767</v>
       </c>
       <c r="O10">
-        <v>0.3748993737432033</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="P10">
-        <v>0.3748993737432033</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="Q10">
-        <v>6.65949594494567</v>
+        <v>668.6028016176239</v>
       </c>
       <c r="R10">
-        <v>6.65949594494567</v>
+        <v>6017.425214558614</v>
       </c>
       <c r="S10">
-        <v>0.002785490462139701</v>
+        <v>0.1021714469717711</v>
       </c>
       <c r="T10">
-        <v>0.002785490462139701</v>
+        <v>0.1021714469717711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.21877928942318</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H11">
-        <v>1.21877928942318</v>
+        <v>216.067345</v>
       </c>
       <c r="I11">
-        <v>0.007429968298767265</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J11">
-        <v>0.007429968298767265</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>9.11069508851247</v>
+        <v>0.07194533333333333</v>
       </c>
       <c r="N11">
-        <v>9.11069508851247</v>
+        <v>0.215836</v>
       </c>
       <c r="O11">
-        <v>0.6251006262567967</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="P11">
-        <v>0.6251006262567967</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="Q11">
-        <v>11.10392648612848</v>
+        <v>5.181679052824444</v>
       </c>
       <c r="R11">
-        <v>11.10392648612848</v>
+        <v>46.63511147542</v>
       </c>
       <c r="S11">
-        <v>0.004644477836627564</v>
+        <v>0.0007918298357253464</v>
       </c>
       <c r="T11">
-        <v>0.004644477836627564</v>
+        <v>0.0007918298357253465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.5930178308357</v>
+        <v>0.2262363333333333</v>
       </c>
       <c r="H12">
-        <v>7.5930178308357</v>
+        <v>0.678709</v>
       </c>
       <c r="I12">
-        <v>0.04628884184747196</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="J12">
-        <v>0.04628884184747196</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.46407048654187</v>
+        <v>21.110155</v>
       </c>
       <c r="N12">
-        <v>5.46407048654187</v>
+        <v>63.330465</v>
       </c>
       <c r="O12">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646842</v>
       </c>
       <c r="P12">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646841</v>
       </c>
       <c r="Q12">
-        <v>41.48878463325552</v>
+        <v>4.775884063298333</v>
       </c>
       <c r="R12">
-        <v>41.48878463325552</v>
+        <v>42.982956569685</v>
       </c>
       <c r="S12">
-        <v>0.01735365781991542</v>
+        <v>0.000729818936049983</v>
       </c>
       <c r="T12">
-        <v>0.01735365781991542</v>
+        <v>0.0007298189360499829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2262363333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.678709</v>
+      </c>
+      <c r="I13">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="J13">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.94876</v>
+      </c>
+      <c r="O13">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P13">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q13">
+        <v>0.07154799453777778</v>
+      </c>
+      <c r="R13">
+        <v>0.64393195084</v>
+      </c>
+      <c r="S13">
+        <v>1.093349012622569E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.093349012622569E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2262363333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.678709</v>
+      </c>
+      <c r="I14">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="J14">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.131037</v>
+      </c>
+      <c r="N14">
+        <v>0.393111</v>
+      </c>
+      <c r="O14">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P14">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q14">
+        <v>0.029645330411</v>
+      </c>
+      <c r="R14">
+        <v>0.266807973699</v>
+      </c>
+      <c r="S14">
+        <v>4.530202830020983E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.530202830020983E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2262363333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.678709</v>
+      </c>
+      <c r="I15">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="J15">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N15">
+        <v>27.849767</v>
+      </c>
+      <c r="O15">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P15">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q15">
+        <v>2.100209723422556</v>
+      </c>
+      <c r="R15">
+        <v>18.901887510803</v>
+      </c>
+      <c r="S15">
+        <v>0.0003209401244911107</v>
+      </c>
+      <c r="T15">
+        <v>0.0003209401244911106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2262363333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.678709</v>
+      </c>
+      <c r="I16">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="J16">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.215836</v>
+      </c>
+      <c r="O16">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P16">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q16">
+        <v>0.01627664841377778</v>
+      </c>
+      <c r="R16">
+        <v>0.146489835724</v>
+      </c>
+      <c r="S16">
+        <v>2.487289488262625E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.487289488262625E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.447588</v>
+      </c>
+      <c r="I17">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J17">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.110155</v>
+      </c>
+      <c r="N17">
+        <v>63.330465</v>
+      </c>
+      <c r="O17">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P17">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q17">
+        <v>10.18626901871333</v>
+      </c>
+      <c r="R17">
+        <v>91.67642116842001</v>
+      </c>
+      <c r="S17">
+        <v>0.00155659809137454</v>
+      </c>
+      <c r="T17">
+        <v>0.00155659809137454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.447588</v>
+      </c>
+      <c r="I18">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J18">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.94876</v>
+      </c>
+      <c r="O18">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P18">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q18">
+        <v>0.1526015100977778</v>
+      </c>
+      <c r="R18">
+        <v>1.37341359088</v>
+      </c>
+      <c r="S18">
+        <v>2.331955094870232E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.331955094870231E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.447588</v>
+      </c>
+      <c r="I19">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J19">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.131037</v>
+      </c>
+      <c r="N19">
+        <v>0.393111</v>
+      </c>
+      <c r="O19">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P19">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q19">
+        <v>0.06322919625199999</v>
+      </c>
+      <c r="R19">
+        <v>0.569062766268</v>
+      </c>
+      <c r="S19">
+        <v>9.662266529992111E-06</v>
+      </c>
+      <c r="T19">
+        <v>9.662266529992111E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.5930178308357</v>
-      </c>
-      <c r="H13">
-        <v>7.5930178308357</v>
-      </c>
-      <c r="I13">
-        <v>0.04628884184747196</v>
-      </c>
-      <c r="J13">
-        <v>0.04628884184747196</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.11069508851247</v>
-      </c>
-      <c r="N13">
-        <v>9.11069508851247</v>
-      </c>
-      <c r="O13">
-        <v>0.6251006262567967</v>
-      </c>
-      <c r="P13">
-        <v>0.6251006262567967</v>
-      </c>
-      <c r="Q13">
-        <v>69.17767025838242</v>
-      </c>
-      <c r="R13">
-        <v>69.17767025838242</v>
-      </c>
-      <c r="S13">
-        <v>0.02893518402755655</v>
-      </c>
-      <c r="T13">
-        <v>0.02893518402755655</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.447588</v>
+      </c>
+      <c r="I20">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J20">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N20">
+        <v>27.849767</v>
+      </c>
+      <c r="O20">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P20">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q20">
+        <v>4.479443167999556</v>
+      </c>
+      <c r="R20">
+        <v>40.31498851199601</v>
+      </c>
+      <c r="S20">
+        <v>0.0006845188039820276</v>
+      </c>
+      <c r="T20">
+        <v>0.0006845188039820275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.447588</v>
+      </c>
+      <c r="I21">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J21">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.215836</v>
+      </c>
+      <c r="O21">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P21">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q21">
+        <v>0.03471573372977778</v>
+      </c>
+      <c r="R21">
+        <v>0.312441603568</v>
+      </c>
+      <c r="S21">
+        <v>5.305028245883166E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.305028245883166E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.991907</v>
+      </c>
+      <c r="I22">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J22">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.110155</v>
+      </c>
+      <c r="N22">
+        <v>63.330465</v>
+      </c>
+      <c r="O22">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P22">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q22">
+        <v>28.08992517186167</v>
+      </c>
+      <c r="R22">
+        <v>252.809326546755</v>
+      </c>
+      <c r="S22">
+        <v>0.0042925161144916</v>
+      </c>
+      <c r="T22">
+        <v>0.0042925161144916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.991907</v>
+      </c>
+      <c r="I23">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J23">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.94876</v>
+      </c>
+      <c r="O23">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P23">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q23">
+        <v>0.4208179650355556</v>
+      </c>
+      <c r="R23">
+        <v>3.787361685320001</v>
+      </c>
+      <c r="S23">
+        <v>6.430661118286516E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.430661118286516E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.991907</v>
+      </c>
+      <c r="I24">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J24">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.131037</v>
+      </c>
+      <c r="N24">
+        <v>0.393111</v>
+      </c>
+      <c r="O24">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P24">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q24">
+        <v>0.174362505853</v>
+      </c>
+      <c r="R24">
+        <v>1.569262552677</v>
+      </c>
+      <c r="S24">
+        <v>2.664492203371485E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.664492203371486E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.991907</v>
+      </c>
+      <c r="I25">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J25">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N25">
+        <v>27.849767</v>
+      </c>
+      <c r="O25">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P25">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q25">
+        <v>12.35263109285211</v>
+      </c>
+      <c r="R25">
+        <v>111.173679835669</v>
+      </c>
+      <c r="S25">
+        <v>0.001887647179478887</v>
+      </c>
+      <c r="T25">
+        <v>0.001887647179478887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.991907</v>
+      </c>
+      <c r="I26">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J26">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.215836</v>
+      </c>
+      <c r="O26">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P26">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q26">
+        <v>0.09573302658355556</v>
+      </c>
+      <c r="R26">
+        <v>0.861597239252</v>
+      </c>
+      <c r="S26">
+        <v>1.462928636458628E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.462928636458629E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H27">
+        <v>25.078222</v>
+      </c>
+      <c r="I27">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J27">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>21.110155</v>
+      </c>
+      <c r="N27">
+        <v>63.330465</v>
+      </c>
+      <c r="O27">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P27">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q27">
+        <v>176.4683845148033</v>
+      </c>
+      <c r="R27">
+        <v>1588.21546063323</v>
+      </c>
+      <c r="S27">
+        <v>0.02696672844778141</v>
+      </c>
+      <c r="T27">
+        <v>0.02696672844778141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H28">
+        <v>25.078222</v>
+      </c>
+      <c r="I28">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J28">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.94876</v>
+      </c>
+      <c r="O28">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P28">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q28">
+        <v>2.643690433857778</v>
+      </c>
+      <c r="R28">
+        <v>23.79321390472</v>
+      </c>
+      <c r="S28">
+        <v>0.0004039912431105172</v>
+      </c>
+      <c r="T28">
+        <v>0.000403991243110517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H29">
+        <v>25.078222</v>
+      </c>
+      <c r="I29">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J29">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.131037</v>
+      </c>
+      <c r="N29">
+        <v>0.393111</v>
+      </c>
+      <c r="O29">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P29">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q29">
+        <v>1.095391658738</v>
+      </c>
+      <c r="R29">
+        <v>9.858524928642</v>
+      </c>
+      <c r="S29">
+        <v>0.0001673904902930335</v>
+      </c>
+      <c r="T29">
+        <v>0.0001673904902930335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H30">
+        <v>25.078222</v>
+      </c>
+      <c r="I30">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J30">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N30">
+        <v>27.849767</v>
+      </c>
+      <c r="O30">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P30">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q30">
+        <v>77.60251549714157</v>
+      </c>
+      <c r="R30">
+        <v>698.422639474274</v>
+      </c>
+      <c r="S30">
+        <v>0.01185870187472939</v>
+      </c>
+      <c r="T30">
+        <v>0.01185870187472939</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H31">
+        <v>25.078222</v>
+      </c>
+      <c r="I31">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J31">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.215836</v>
+      </c>
+      <c r="O31">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P31">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q31">
+        <v>0.6014203470657777</v>
+      </c>
+      <c r="R31">
+        <v>5.412783123592</v>
+      </c>
+      <c r="S31">
+        <v>9.190506972047891E-05</v>
+      </c>
+      <c r="T31">
+        <v>9.190506972047891E-05</v>
       </c>
     </row>
   </sheetData>
